--- a/AI model Power Consumption Database - with graphs.xlsx
+++ b/AI model Power Consumption Database - with graphs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snarayan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snarayan\Downloads\model_training_resource_consumption_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEAB752-BF91-4502-A9B0-293CC37ADD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381DD8F-5165-4CEF-BC22-3910ADE2B8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{63DAF364-F857-4F0A-938E-B54295742752}"/>
+    <workbookView xWindow="25490" yWindow="3470" windowWidth="19420" windowHeight="11020" xr2:uid="{63DAF364-F857-4F0A-938E-B54295742752}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -257,8 +257,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -7379,8 +7378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766BABF-5672-41FA-8635-C262FC3FAC3D}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7402,7 +7401,7 @@
     <col min="15" max="15" width="56.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="48.1796875" customWidth="1"/>
     <col min="17" max="17" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="53" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28.90625" style="7" bestFit="1" customWidth="1"/>
@@ -7538,7 +7537,7 @@
       <c r="Q2" s="9">
         <v>1</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="9">
         <f>Q2*L2/1000000</f>
         <v>60</v>
       </c>
@@ -7615,7 +7614,7 @@
       <c r="Q3" s="9">
         <v>2</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="9">
         <f>Q3*L3/1000000</f>
         <v>5.5759999999999996</v>
       </c>
@@ -7693,7 +7692,7 @@
       <c r="Q4" s="9">
         <v>1</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="9">
         <f>Q4*L4/1000000</f>
         <v>39.299999999999997</v>
       </c>

--- a/AI model Power Consumption Database - with graphs.xlsx
+++ b/AI model Power Consumption Database - with graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snarayan\Downloads\model_training_resource_consumption_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB3DF5-6A20-4114-9104-E6FB601F89D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8702059-472A-4A60-A77A-0C845CBAC00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{63DAF364-F857-4F0A-938E-B54295742752}"/>
   </bookViews>
@@ -567,6 +567,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-76E9-4DAD-A9AA-072D7B244B7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -896,6 +901,9 @@
                     </c:manualLayout>
                   </c15:layout>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-76E9-4DAD-A9AA-072D7B244B7D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1327,6 +1335,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-32B9-44C8-B6CA-9005920547C6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1755,6 +1768,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0AF3-4627-9DDD-979A00B95881}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1919,6 +1937,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0AF3-4627-9DDD-979A00B95881}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2360,6 +2381,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F488-433C-B016-55FE49073580}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2643,6 +2669,9 @@
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F488-433C-B016-55FE49073580}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3074,6 +3103,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7BD8-4CED-BF9E-790AC6154653}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3407,6 +3441,9 @@
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7BD8-4CED-BF9E-790AC6154653}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3845,6 +3882,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-30EC-4D16-A0A6-8BA36364B30D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7934,7 +7976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766BABF-5672-41FA-8635-C262FC3FAC3D}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/AI model Power Consumption Database - with graphs.xlsx
+++ b/AI model Power Consumption Database - with graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snarayan\Downloads\model_training_resource_consumption_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8702059-472A-4A60-A77A-0C845CBAC00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF856726-70BC-4149-A900-577352B7FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{63DAF364-F857-4F0A-938E-B54295742752}"/>
+    <workbookView xWindow="25490" yWindow="3470" windowWidth="19420" windowHeight="11020" xr2:uid="{63DAF364-F857-4F0A-938E-B54295742752}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>GPU Model Name</t>
   </si>
@@ -204,35 +204,41 @@
     <t>(sequence length) * (global batch size) / (training_step_timing) = (throughput in tokens per second)</t>
   </si>
   <si>
-    <t>model name</t>
-  </si>
-  <si>
-    <t>training_step_timing (seconds)</t>
-  </si>
-  <si>
-    <t>global batch size (size in number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence length </t>
-  </si>
-  <si>
-    <t>total tokens</t>
-  </si>
-  <si>
-    <t>number of seconds in a day</t>
-  </si>
-  <si>
-    <t>throughput (tokens per second)</t>
-  </si>
-  <si>
-    <t>time to train (days)</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>https://catalog.ngc.nvidia.com/orgs/nvidia/teams/dgxc-benchmarking/resources/nemotron340b-dgxc-benchmarking-a
 https://catalog.ngc.nvidia.com/orgs/nvidia/teams/nemo/models/nemotron-4-340b-base</t>
+  </si>
+  <si>
+    <t>To calculate time to train estimate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(total tokens) / (throughput in tokens per second) / (number of seconds in a day) = (time to train in days) </t>
+  </si>
+  <si>
+    <t>Estimated time to train (days)</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence length </t>
+  </si>
+  <si>
+    <t>Global batch size (size in number)</t>
+  </si>
+  <si>
+    <t>Training_step_timing (seconds)</t>
+  </si>
+  <si>
+    <t>Throughput (tokens per second)</t>
+  </si>
+  <si>
+    <t>Total tokens</t>
+  </si>
+  <si>
+    <t>Number of seconds in a day</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,19 +287,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -329,7 +322,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -377,24 +370,31 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -551,6 +551,28 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-837A-4830-8E73-12CDF74BBCB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-837A-4830-8E73-12CDF74BBCB3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1323,6 +1345,28 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-0D67-40D4-ADC7-85ACC281EA86}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -1752,6 +1796,28 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-F011-4103-94B6-A06B933FFD17}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F011-4103-94B6-A06B933FFD17}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2365,6 +2431,28 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-D9EB-42C8-8AF8-D79831319C38}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D9EB-42C8-8AF8-D79831319C38}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3087,6 +3175,28 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-F443-4EAF-9148-04ED6F15864F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F443-4EAF-9148-04ED6F15864F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3866,6 +3976,28 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A415-4526-8EE6-A4D7A7A01522}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A3FE-4B9C-BCA4-D96460F02E48}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7976,9 +8108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766BABF-5672-41FA-8635-C262FC3FAC3D}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -57637,20 +57767,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFAE229-F8FE-481A-85C2-0E0DB22A549F}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="110.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.26953125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="90.1796875" customWidth="1"/>
   </cols>
@@ -57661,80 +57791,128 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C8" s="27">
         <v>4096</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D8" s="27">
         <v>2304</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E8" s="27">
         <v>8</v>
       </c>
-      <c r="F6" s="28">
-        <f>(C6*D6)/E6</f>
+      <c r="F8" s="27">
+        <f>(C8*D8)/E8</f>
         <v>1179648</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="26">
         <f>9*10^12</f>
         <v>9000000000000</v>
       </c>
-      <c r="H6">
+      <c r="H8" s="26">
         <v>86400</v>
       </c>
-      <c r="I6">
-        <f>(G6/F6)/H6</f>
+      <c r="I8" s="26">
+        <f>(G8/F8)/H8</f>
         <v>88.303177445023152</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>56</v>
+      <c r="J8" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="notes" display="https://catalog.ngc.nvidia.com/orgs/nvidia/teams/dgxc-benchmarking/resources/nemotron340b-dgxc-benchmarking-a#notes" xr:uid="{83FC447A-F98D-41E8-8826-040DD63366B8}"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://catalog.ngc.nvidia.com/orgs/nvidia/teams/dgxc-benchmarking/resources/nemotron340b-dgxc-benchmarking-a" xr:uid="{2FA8043B-31E7-4D77-8F0E-A309CC790116}"/>
+    <hyperlink ref="J8" r:id="rId2" display="https://catalog.ngc.nvidia.com/orgs/nvidia/teams/dgxc-benchmarking/resources/nemotron340b-dgxc-benchmarking-a" xr:uid="{2FA8043B-31E7-4D77-8F0E-A309CC790116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
